--- a/LifeInsuranceManagement/src/test/resources/Education.xlsx
+++ b/LifeInsuranceManagement/src/test/resources/Education.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johns\eclipse-workspace\LifeInsuranceManagement\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johns\git\TyyMainProject\LifeInsuranceManagement\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78803B94-C6E2-472E-AC35-FD587C741196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B6D003-6EB1-464E-8C4D-A046B4081DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{014B82BA-592A-4EF8-AC0A-69A4CCC3A0C5}"/>
+    <workbookView xWindow="5074" yWindow="3540" windowWidth="16457" windowHeight="9454" xr2:uid="{014B82BA-592A-4EF8-AC0A-69A4CCC3A0C5}"/>
   </bookViews>
   <sheets>
     <sheet name="data2" sheetId="3" r:id="rId1"/>
-    <sheet name="jo" r:id="rId5" sheetId="4"/>
-    <sheet name="123" r:id="rId6" sheetId="5"/>
-    <sheet name="sh1" r:id="rId7" sheetId="6"/>
+    <sheet name="jo" sheetId="4" r:id="rId2"/>
+    <sheet name="123" sheetId="5" r:id="rId3"/>
+    <sheet name="sh1" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>jo</t>
   </si>
@@ -64,12 +64,6 @@
   </si>
   <si>
     <t>rajeev</t>
-  </si>
-  <si>
-    <t>abi</t>
-  </si>
-  <si>
-    <t>david</t>
   </si>
   <si>
     <t>ge</t>
@@ -106,7 +100,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,11 +444,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63BF3A0-6B7B-419A-B548-58142F7D9796}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -497,15 +490,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58FD433-99ED-4EB5-9E67-2C927C9D1F14}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -513,7 +506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -521,25 +514,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E856F2CD-55DC-4607-B8B7-C138AEA2E32E}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -547,7 +540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -555,7 +548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -564,67 +557,67 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2125D672-52F0-4702-A095-713697FDE13C}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LifeInsuranceManagement/src/test/resources/Education.xlsx
+++ b/LifeInsuranceManagement/src/test/resources/Education.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johns\git\TyyMainProject\LifeInsuranceManagement\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B6D003-6EB1-464E-8C4D-A046B4081DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E14A5E8-1272-48F3-9BCE-1216DC20D6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5074" yWindow="3540" windowWidth="16457" windowHeight="9454" xr2:uid="{014B82BA-592A-4EF8-AC0A-69A4CCC3A0C5}"/>
+    <workbookView xWindow="5486" yWindow="3540" windowWidth="16457" windowHeight="9454" activeTab="3" xr2:uid="{014B82BA-592A-4EF8-AC0A-69A4CCC3A0C5}"/>
   </bookViews>
   <sheets>
     <sheet name="data2" sheetId="3" r:id="rId1"/>
     <sheet name="jo" sheetId="4" r:id="rId2"/>
     <sheet name="123" sheetId="5" r:id="rId3"/>
     <sheet name="sh1" sheetId="6" r:id="rId4"/>
+    <sheet name="Amazon" r:id="rId8" sheetId="7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>jo</t>
   </si>
@@ -94,12 +95,97 @@
   </si>
   <si>
     <t>zxfvd</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Pro Max (256 GB) - Deep Purple</t>
+  </si>
+  <si>
+    <t>1,43,990</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Plus (128 GB) - Blue</t>
+  </si>
+  <si>
+    <t>75,999</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Pro Max (128 GB) - Space Black</t>
+  </si>
+  <si>
+    <t>1,27,999</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Pro Max (128 GB) - Silver</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Pro Max (128 GB) - Deep Purple</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Pro Max (256 GB) - Gold</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Pro Max (128 GB) - Gold</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Pro Max (256 GB) - Space Black</t>
+  </si>
+  <si>
+    <t>1,37,999</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Pro Max (512 GB) - Silver</t>
+  </si>
+  <si>
+    <t>1,69,900</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Pro Max (256 GB) - Silver</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Plus (256 GB) - Midnight</t>
+  </si>
+  <si>
+    <t>86,999</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Plus (128 GB) - Purple</t>
+  </si>
+  <si>
+    <t>Nillkin Case for Apple iPhone 14 Pro Max (6.7" Inch) Lens Wing Magnetic for Mag Safe Metal Camera Lens Protect Hidden Stand Liquid Silicon &amp; Fibre Black</t>
+  </si>
+  <si>
+    <t>2,999</t>
+  </si>
+  <si>
+    <t>Nillkin Case for Apple iPhone 14 Pro Max (6.7" Inch) Super Frosted Shield Pro Hard Back Soft Border (PC + TPU) Shock Absorb Cover Raised Bezel Camera Protect PC with Logo Cut Black</t>
+  </si>
+  <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>Nillkin Carbon Fiber Case for iPhone 14 Pro Max Case with Torsion Spring Camera Cover, Durable Aramid Fiber Shockproof Bumper with Heavy Drop Protection for iPhone 14 Pro Max Cases 6.7'' Black</t>
+  </si>
+  <si>
+    <t>2,499</t>
+  </si>
+  <si>
+    <t>Nillkin for iPhone 14 Pro Max Case with Sliding Camera Cover,[Full Around Protection],[Anti-Fingerprint],[Carbon Fiber Texture Anti-Scratch],Slim Shockproof Protective 6.7",Deep Purple(Polycarbonate)</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Pro (128 GB) - Silver</t>
+  </si>
+  <si>
+    <t>1,19,999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,7 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63BF3A0-6B7B-419A-B548-58142F7D9796}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -565,7 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2125D672-52F0-4702-A095-713697FDE13C}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -620,4 +706,153 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>